--- a/master/StructureDefinition-bc-facility-physical-address-extension.xlsx
+++ b/master/StructureDefinition-bc-facility-physical-address-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T22:17:34+00:00</t>
+    <t>2024-07-03T22:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/StructureDefinition-bc-facility-physical-address-extension.xlsx
+++ b/master/StructureDefinition-bc-facility-physical-address-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T22:37:23+00:00</t>
+    <t>2024-09-27T21:23:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -347,7 +347,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats). This data type is to used to convey addresses for visiting locations which might not be valid for mail delivery.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}

--- a/master/StructureDefinition-bc-facility-physical-address-extension.xlsx
+++ b/master/StructureDefinition-bc-facility-physical-address-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T21:23:15+00:00</t>
+    <t>2024-10-18T22:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
